--- a/outcome/appendix/data/forecast/Scarlet fever.xlsx
+++ b/outcome/appendix/data/forecast/Scarlet fever.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">猩红热</t>
+    <t xml:space="preserve">Scarlet fever</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>8858.40787410502</v>
+        <v>9398.42948910768</v>
       </c>
       <c r="C2" t="n">
-        <v>7706.63638315058</v>
+        <v>8256.83596306534</v>
       </c>
       <c r="D2" t="n">
-        <v>7096.92538570323</v>
+        <v>7652.51285478463</v>
       </c>
       <c r="E2" t="n">
-        <v>10010.1793650595</v>
+        <v>10540.02301515</v>
       </c>
       <c r="F2" t="n">
-        <v>10619.8903625068</v>
+        <v>11144.3461234307</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>6352</v>
       </c>
       <c r="I2" t="n">
-        <v>2506.40787410502</v>
+        <v>3046.42948910768</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>4183.09020382474</v>
+        <v>4031.83374208978</v>
       </c>
       <c r="C3" t="n">
-        <v>2591.71105914839</v>
+        <v>2284.56884192414</v>
       </c>
       <c r="D3" t="n">
-        <v>1749.2858270275</v>
+        <v>1359.62267556095</v>
       </c>
       <c r="E3" t="n">
-        <v>5774.4693485011</v>
+        <v>5779.09864225543</v>
       </c>
       <c r="F3" t="n">
-        <v>6616.89458062199</v>
+        <v>6704.04480861862</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>580</v>
       </c>
       <c r="I3" t="n">
-        <v>3603.09020382474</v>
+        <v>3451.83374208978</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6404.1223754131</v>
+        <v>5871.79435091877</v>
       </c>
       <c r="C4" t="n">
-        <v>4688.52721204399</v>
+        <v>3941.22354375411</v>
       </c>
       <c r="D4" t="n">
-        <v>3780.34599164688</v>
+        <v>2919.24109174563</v>
       </c>
       <c r="E4" t="n">
-        <v>8119.7175387822</v>
+        <v>7802.36515808344</v>
       </c>
       <c r="F4" t="n">
-        <v>9027.89875917932</v>
+        <v>8824.34761009192</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>444</v>
       </c>
       <c r="I4" t="n">
-        <v>5960.1223754131</v>
+        <v>5427.79435091877</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>8251.48137847166</v>
+        <v>7797.83476509989</v>
       </c>
       <c r="C5" t="n">
-        <v>6495.57878939511</v>
+        <v>5801.12125785527</v>
       </c>
       <c r="D5" t="n">
-        <v>5566.06010672737</v>
+        <v>4744.12497545045</v>
       </c>
       <c r="E5" t="n">
-        <v>10007.3839675482</v>
+        <v>9794.5482723445</v>
       </c>
       <c r="F5" t="n">
-        <v>10936.9026502159</v>
+        <v>10851.5445547493</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>442</v>
       </c>
       <c r="I5" t="n">
-        <v>7809.48137847166</v>
+        <v>7355.83476509989</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>11283.3565372541</v>
+        <v>10755.8035257124</v>
       </c>
       <c r="C6" t="n">
-        <v>9513.9333403097</v>
+        <v>8734.18231844138</v>
       </c>
       <c r="D6" t="n">
-        <v>8577.25728018126</v>
+        <v>7664.00069610889</v>
       </c>
       <c r="E6" t="n">
-        <v>13052.7797341986</v>
+        <v>12777.4247329835</v>
       </c>
       <c r="F6" t="n">
-        <v>13989.455794327</v>
+        <v>13847.606355316</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>562</v>
       </c>
       <c r="I6" t="n">
-        <v>10721.3565372541</v>
+        <v>10193.8035257124</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>11453.4234536634</v>
+        <v>11127.8497308526</v>
       </c>
       <c r="C7" t="n">
-        <v>9679.4181486775</v>
+        <v>9096.71296010196</v>
       </c>
       <c r="D7" t="n">
-        <v>8740.31646707263</v>
+        <v>8021.4941027398</v>
       </c>
       <c r="E7" t="n">
-        <v>13227.4287586494</v>
+        <v>13158.9865016032</v>
       </c>
       <c r="F7" t="n">
-        <v>14166.5304402542</v>
+        <v>14234.2053589654</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>677</v>
       </c>
       <c r="I7" t="n">
-        <v>10776.4234536634</v>
+        <v>10450.8497308526</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6423.96633219251</v>
+        <v>6454.7528610505</v>
       </c>
       <c r="C8" t="n">
-        <v>4648.40288557589</v>
+        <v>4419.96156697083</v>
       </c>
       <c r="D8" t="n">
-        <v>3708.47637361599</v>
+        <v>3342.80812181791</v>
       </c>
       <c r="E8" t="n">
-        <v>8199.52977880912</v>
+        <v>8489.54415513017</v>
       </c>
       <c r="F8" t="n">
-        <v>9139.45629076902</v>
+        <v>9566.69760028308</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>763</v>
       </c>
       <c r="I8" t="n">
-        <v>5660.96633219251</v>
+        <v>5691.7528610505</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,28 +648,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>3292.71844682935</v>
+        <v>3330.63650030841</v>
       </c>
       <c r="C9" t="n">
-        <v>1516.6245495593</v>
+        <v>1294.43885291322</v>
       </c>
       <c r="D9" t="n">
-        <v>576.417233985536</v>
+        <v>216.540929285623</v>
       </c>
       <c r="E9" t="n">
-        <v>5068.8123440994</v>
+        <v>5366.83414770359</v>
       </c>
       <c r="F9" t="n">
-        <v>6009.01965967316</v>
+        <v>6444.73207133119</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="I9" t="n">
-        <v>2503.71844682935</v>
+        <v>2567.63650030841</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4242.24262726027</v>
+        <v>4106.88570616326</v>
       </c>
       <c r="C10" t="n">
-        <v>2465.9680743321</v>
+        <v>2070.14645489282</v>
       </c>
       <c r="D10" t="n">
-        <v>1525.66512542971</v>
+        <v>991.961823492381</v>
       </c>
       <c r="E10" t="n">
-        <v>6018.51718018843</v>
+        <v>6143.6249574337</v>
       </c>
       <c r="F10" t="n">
-        <v>6958.82012909082</v>
+        <v>7221.80958883414</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>877</v>
       </c>
       <c r="I10" t="n">
-        <v>3365.24262726027</v>
+        <v>3229.88570616326</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>5915.14623302657</v>
+        <v>5930.91506017495</v>
       </c>
       <c r="C11" t="n">
-        <v>4138.81014605059</v>
+        <v>3893.96719790141</v>
       </c>
       <c r="D11" t="n">
-        <v>3198.47462299094</v>
+        <v>2815.67213450662</v>
       </c>
       <c r="E11" t="n">
-        <v>7691.48232000255</v>
+        <v>7967.86292244848</v>
       </c>
       <c r="F11" t="n">
-        <v>8631.8178430622</v>
+        <v>9046.15798584327</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>1102</v>
       </c>
       <c r="I11" t="n">
-        <v>4813.14623302657</v>
+        <v>4828.91506017495</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>10185.7987868734</v>
+        <v>10113.5039741476</v>
       </c>
       <c r="C12" t="n">
-        <v>8409.44173952836</v>
+        <v>8076.47582587777</v>
       </c>
       <c r="D12" t="n">
-        <v>7469.09512071959</v>
+        <v>6998.13826164381</v>
       </c>
       <c r="E12" t="n">
-        <v>11962.1558342184</v>
+        <v>12150.5321224175</v>
       </c>
       <c r="F12" t="n">
-        <v>12902.5024530271</v>
+        <v>13228.8696866514</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>1925</v>
       </c>
       <c r="I12" t="n">
-        <v>8260.79878687337</v>
+        <v>8188.50397414762</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>12956.8997651364</v>
+        <v>12650.8576065741</v>
       </c>
       <c r="C13" t="n">
-        <v>11180.5355779426</v>
+        <v>10613.7987511142</v>
       </c>
       <c r="D13" t="n">
-        <v>10240.1851795262</v>
+        <v>9535.44493147579</v>
       </c>
       <c r="E13" t="n">
-        <v>14733.2639523302</v>
+        <v>14687.9164620339</v>
       </c>
       <c r="F13" t="n">
-        <v>15673.6143507466</v>
+        <v>15766.2702816723</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>2693</v>
       </c>
       <c r="I13" t="n">
-        <v>10263.8997651364</v>
+        <v>9957.85760657406</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9200.4098227909</v>
+        <v>9249.34394051628</v>
       </c>
       <c r="C14" t="n">
-        <v>7323.2421324247</v>
+        <v>7152.18107670287</v>
       </c>
       <c r="D14" t="n">
-        <v>6329.5295827933</v>
+        <v>6042.01011697057</v>
       </c>
       <c r="E14" t="n">
-        <v>11077.5775131571</v>
+        <v>11346.5068043297</v>
       </c>
       <c r="F14" t="n">
-        <v>12071.2900627885</v>
+        <v>12456.677764062</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>2502</v>
       </c>
       <c r="I14" t="n">
-        <v>6698.4098227909</v>
+        <v>6747.34394051628</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4172.68776462716</v>
+        <v>4109.00570650167</v>
       </c>
       <c r="C15" t="n">
-        <v>2208.68916191633</v>
+        <v>1934.75117870571</v>
       </c>
       <c r="D15" t="n">
-        <v>1169.01110385665</v>
+        <v>783.770357198892</v>
       </c>
       <c r="E15" t="n">
-        <v>6136.68636733799</v>
+        <v>6283.26023429763</v>
       </c>
       <c r="F15" t="n">
-        <v>7176.36442539767</v>
+        <v>7434.24105580445</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>989</v>
       </c>
       <c r="I15" t="n">
-        <v>3183.68776462716</v>
+        <v>3120.00570650167</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6109.82893810888</v>
+        <v>6089.41114257792</v>
       </c>
       <c r="C16" t="n">
-        <v>4117.11614183417</v>
+        <v>3886.17254037701</v>
       </c>
       <c r="D16" t="n">
-        <v>3062.23770788725</v>
+        <v>2719.84847669558</v>
       </c>
       <c r="E16" t="n">
-        <v>8102.54173438359</v>
+        <v>8292.64974477883</v>
       </c>
       <c r="F16" t="n">
-        <v>9157.42016833052</v>
+        <v>9458.97380846026</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>1819</v>
       </c>
       <c r="I16" t="n">
-        <v>4290.82893810888</v>
+        <v>4270.41114257792</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8503.70643392735</v>
+        <v>8102.62987512155</v>
       </c>
       <c r="C17" t="n">
-        <v>6501.30649971474</v>
+        <v>5888.32479223357</v>
       </c>
       <c r="D17" t="n">
-        <v>5441.3000047063</v>
+        <v>4716.14248754607</v>
       </c>
       <c r="E17" t="n">
-        <v>10506.10636814</v>
+        <v>10316.9349580095</v>
       </c>
       <c r="F17" t="n">
-        <v>11566.1128631484</v>
+        <v>11489.117262697</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>2790</v>
       </c>
       <c r="I17" t="n">
-        <v>5713.70643392735</v>
+        <v>5312.62987512155</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>11968.5119062848</v>
+        <v>11114.7128337539</v>
       </c>
       <c r="C18" t="n">
-        <v>9962.82284471115</v>
+        <v>8896.15850483963</v>
       </c>
       <c r="D18" t="n">
-        <v>8901.07519085325</v>
+        <v>7721.72678518271</v>
       </c>
       <c r="E18" t="n">
-        <v>13974.2009678584</v>
+        <v>13333.2671626682</v>
       </c>
       <c r="F18" t="n">
-        <v>15035.9486217163</v>
+        <v>14507.6988823251</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>4124</v>
       </c>
       <c r="I18" t="n">
-        <v>7844.5119062848</v>
+        <v>6990.7128337539</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>12048.1434330911</v>
+        <v>11520.3493453181</v>
       </c>
       <c r="C19" t="n">
-        <v>10041.3351995638</v>
+        <v>9300.15992867595</v>
       </c>
       <c r="D19" t="n">
-        <v>8978.99509186099</v>
+        <v>8124.86264586063</v>
       </c>
       <c r="E19" t="n">
-        <v>14054.9516666185</v>
+        <v>13740.5387619602</v>
       </c>
       <c r="F19" t="n">
-        <v>15117.2917743213</v>
+        <v>14915.8360447755</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>4165</v>
       </c>
       <c r="I19" t="n">
-        <v>7883.14343309113</v>
+        <v>7355.34934531807</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6881.28261598421</v>
+        <v>6868.10298660082</v>
       </c>
       <c r="C20" t="n">
-        <v>4874.09329207198</v>
+        <v>4647.28388432251</v>
       </c>
       <c r="D20" t="n">
-        <v>3811.55144730548</v>
+        <v>3471.65326606667</v>
       </c>
       <c r="E20" t="n">
-        <v>8888.47193989645</v>
+        <v>9088.92208887914</v>
       </c>
       <c r="F20" t="n">
-        <v>9951.01378466294</v>
+        <v>10264.552707135</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>2430</v>
       </c>
       <c r="I20" t="n">
-        <v>4451.28261598421</v>
+        <v>4438.10298660082</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>3739.38925243067</v>
+        <v>3756.92916371508</v>
       </c>
       <c r="C21" t="n">
-        <v>1732.07013104351</v>
+        <v>1535.86749217196</v>
       </c>
       <c r="D21" t="n">
-        <v>669.45957564429</v>
+        <v>360.108465503896</v>
       </c>
       <c r="E21" t="n">
-        <v>5746.70837381782</v>
+        <v>5977.99083525819</v>
       </c>
       <c r="F21" t="n">
-        <v>6809.31892921704</v>
+        <v>7153.74986192626</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>1152</v>
       </c>
       <c r="I21" t="n">
-        <v>2587.38925243067</v>
+        <v>2604.92916371508</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4482.85083319857</v>
+        <v>4541.21219116219</v>
       </c>
       <c r="C22" t="n">
-        <v>2475.48749973174</v>
+        <v>2320.05707524762</v>
       </c>
       <c r="D22" t="n">
-        <v>1412.8535398713</v>
+        <v>1144.24858211735</v>
       </c>
       <c r="E22" t="n">
-        <v>6490.2141666654</v>
+        <v>6762.36730707675</v>
       </c>
       <c r="F22" t="n">
-        <v>7552.84812652584</v>
+        <v>7938.17580020702</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>1202</v>
       </c>
       <c r="I22" t="n">
-        <v>3280.85083319857</v>
+        <v>3339.21219116219</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6532.33117561919</v>
+        <v>6370.22837929346</v>
       </c>
       <c r="C23" t="n">
-        <v>4524.95278204539</v>
+        <v>4149.03729063011</v>
       </c>
       <c r="D23" t="n">
-        <v>3462.31084984589</v>
+        <v>2973.20975467693</v>
       </c>
       <c r="E23" t="n">
-        <v>8539.70956919298</v>
+        <v>8591.41946795682</v>
       </c>
       <c r="F23" t="n">
-        <v>9602.35150139248</v>
+        <v>9767.24700391</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>1634</v>
       </c>
       <c r="I23" t="n">
-        <v>4898.33117561919</v>
+        <v>4736.22837929346</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>11013.115984231</v>
+        <v>10555.9127708357</v>
       </c>
       <c r="C24" t="n">
-        <v>9005.73246063322</v>
+        <v>8334.70790189982</v>
       </c>
       <c r="D24" t="n">
-        <v>7943.08781276306</v>
+        <v>7158.87307111104</v>
       </c>
       <c r="E24" t="n">
-        <v>13020.4995078288</v>
+        <v>12777.1176397715</v>
       </c>
       <c r="F24" t="n">
-        <v>14083.144155699</v>
+        <v>13952.9524705603</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>2717</v>
       </c>
       <c r="I24" t="n">
-        <v>8296.11598423102</v>
+        <v>7838.91277083565</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>13735.1369625165</v>
+        <v>13095.1878590703</v>
       </c>
       <c r="C25" t="n">
-        <v>11727.7516914389</v>
+        <v>10873.9778883717</v>
       </c>
       <c r="D25" t="n">
-        <v>10665.1061185088</v>
+        <v>9698.14035687285</v>
       </c>
       <c r="E25" t="n">
-        <v>15742.5222335942</v>
+        <v>15316.3978297688</v>
       </c>
       <c r="F25" t="n">
-        <v>16805.1678065243</v>
+        <v>16492.2353612676</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3983</v>
       </c>
       <c r="I25" t="n">
-        <v>9752.13696251655</v>
+        <v>9112.18785907025</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>9977.01382468166</v>
+        <v>9694.86689828647</v>
       </c>
       <c r="C26" t="n">
-        <v>7943.59431592336</v>
+        <v>7419.27100140844</v>
       </c>
       <c r="D26" t="n">
-        <v>6867.1670500544</v>
+        <v>6214.64329967323</v>
       </c>
       <c r="E26" t="n">
-        <v>12010.43333344</v>
+        <v>11970.4627951645</v>
       </c>
       <c r="F26" t="n">
-        <v>13086.8605993089</v>
+        <v>13175.0904968997</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>3232</v>
       </c>
       <c r="I26" t="n">
-        <v>6745.01382468166</v>
+        <v>6462.86689828647</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4377.7027794167</v>
+        <v>4555.26901222291</v>
       </c>
       <c r="C27" t="n">
-        <v>2320.9889335618</v>
+        <v>2209.03354183671</v>
       </c>
       <c r="D27" t="n">
-        <v>1232.23039051018</v>
+        <v>967.011508707487</v>
       </c>
       <c r="E27" t="n">
-        <v>6434.4166252716</v>
+        <v>6901.50448260912</v>
       </c>
       <c r="F27" t="n">
-        <v>7523.17516832322</v>
+        <v>8143.52651573834</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>990</v>
       </c>
       <c r="I27" t="n">
-        <v>3387.7027794167</v>
+        <v>3565.26901222291</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>6594.7232046257</v>
+        <v>6536.13400448675</v>
       </c>
       <c r="C28" t="n">
-        <v>4530.13442622139</v>
+        <v>4163.24186257843</v>
       </c>
       <c r="D28" t="n">
-        <v>3437.20714569255</v>
+        <v>2907.10863993808</v>
       </c>
       <c r="E28" t="n">
-        <v>8659.31198303001</v>
+        <v>8909.02614639507</v>
       </c>
       <c r="F28" t="n">
-        <v>9752.23926355884</v>
+        <v>10165.1593690354</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>1848</v>
       </c>
       <c r="I28" t="n">
-        <v>4746.7232046257</v>
+        <v>4688.13400448675</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8727.06754233362</v>
+        <v>8549.63799734513</v>
       </c>
       <c r="C29" t="n">
-        <v>6659.80310970721</v>
+        <v>6166.55446379226</v>
       </c>
       <c r="D29" t="n">
-        <v>5565.45942339181</v>
+        <v>4905.02624430247</v>
       </c>
       <c r="E29" t="n">
-        <v>10794.33197496</v>
+        <v>10932.721530898</v>
       </c>
       <c r="F29" t="n">
-        <v>11888.6756612754</v>
+        <v>12194.2497503878</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>1639</v>
       </c>
       <c r="I29" t="n">
-        <v>7088.06754233362</v>
+        <v>6910.63799734513</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>11558.4769396073</v>
+        <v>11561.8980256142</v>
       </c>
       <c r="C30" t="n">
-        <v>9490.30186697675</v>
+        <v>9174.89930335526</v>
       </c>
       <c r="D30" t="n">
-        <v>8395.47611696242</v>
+        <v>7911.29850815935</v>
       </c>
       <c r="E30" t="n">
-        <v>13626.6520122379</v>
+        <v>13948.8967478731</v>
       </c>
       <c r="F30" t="n">
-        <v>14721.4777622522</v>
+        <v>15212.497543069</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2588</v>
       </c>
       <c r="I30" t="n">
-        <v>8970.47693960732</v>
+        <v>8973.89802561418</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>12055.005170919</v>
+        <v>11967.6444496149</v>
       </c>
       <c r="C31" t="n">
-        <v>9986.51999093252</v>
+        <v>9579.13889608293</v>
       </c>
       <c r="D31" t="n">
-        <v>8891.53008000021</v>
+        <v>8314.74043259458</v>
       </c>
       <c r="E31" t="n">
-        <v>14123.4903509054</v>
+        <v>14356.1500031468</v>
       </c>
       <c r="F31" t="n">
-        <v>15218.4802618377</v>
+        <v>15620.5484666352</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>2896</v>
       </c>
       <c r="I31" t="n">
-        <v>9159.00517091895</v>
+        <v>9071.64444961488</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7349.26337309699</v>
+        <v>7315.46631684494</v>
       </c>
       <c r="C32" t="n">
-        <v>5280.67256927156</v>
+        <v>4926.38042785645</v>
       </c>
       <c r="D32" t="n">
-        <v>4185.62674445638</v>
+        <v>3661.67475333462</v>
       </c>
       <c r="E32" t="n">
-        <v>9417.85417692243</v>
+        <v>9704.55220583343</v>
       </c>
       <c r="F32" t="n">
-        <v>10512.9000017376</v>
+        <v>10969.2578803553</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>1758</v>
       </c>
       <c r="I32" t="n">
-        <v>5591.26337309699</v>
+        <v>5557.46631684494</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>4054.0488129758</v>
+        <v>4204.33484385183</v>
       </c>
       <c r="C33" t="n">
-        <v>1985.42203085291</v>
+        <v>1815.02539015841</v>
       </c>
       <c r="D33" t="n">
-        <v>890.357160277535</v>
+        <v>550.201367630656</v>
       </c>
       <c r="E33" t="n">
-        <v>6122.67559509869</v>
+        <v>6593.64429754525</v>
       </c>
       <c r="F33" t="n">
-        <v>7217.74046567407</v>
+        <v>7858.468320073</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>940</v>
       </c>
       <c r="I33" t="n">
-        <v>3114.0488129758</v>
+        <v>3264.33484385183</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4955.48027465535</v>
+        <v>4988.64415914802</v>
       </c>
       <c r="C34" t="n">
-        <v>2886.84123708791</v>
+        <v>2599.24858132478</v>
       </c>
       <c r="D34" t="n">
-        <v>1791.76987887208</v>
+        <v>1334.37896743668</v>
       </c>
       <c r="E34" t="n">
-        <v>7024.11931222279</v>
+        <v>7378.03973697125</v>
       </c>
       <c r="F34" t="n">
-        <v>8119.19067043862</v>
+        <v>8642.90935085936</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>1020</v>
       </c>
       <c r="I34" t="n">
-        <v>3935.48027465535</v>
+        <v>3968.64415914802</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6933.59190228453</v>
+        <v>6817.67666493599</v>
       </c>
       <c r="C35" t="n">
-        <v>4864.94869005942</v>
+        <v>4428.24793250194</v>
       </c>
       <c r="D35" t="n">
-        <v>3769.87512191331</v>
+        <v>3163.36076762305</v>
       </c>
       <c r="E35" t="n">
-        <v>9002.23511450965</v>
+        <v>9207.10539737004</v>
       </c>
       <c r="F35" t="n">
-        <v>10097.3086826558</v>
+        <v>10471.9925622489</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>1383</v>
       </c>
       <c r="I35" t="n">
-        <v>5550.59190228453</v>
+        <v>5434.67666493599</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>11582.2080790481</v>
+        <v>11003.3711853373</v>
       </c>
       <c r="C36" t="n">
-        <v>9513.5634447765</v>
+        <v>8613.92975280462</v>
       </c>
       <c r="D36" t="n">
-        <v>8418.48912384443</v>
+        <v>7349.03586489961</v>
       </c>
       <c r="E36" t="n">
-        <v>13650.8527133198</v>
+        <v>13392.81261787</v>
       </c>
       <c r="F36" t="n">
-        <v>14745.9270342519</v>
+        <v>14657.706505775</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>1896</v>
       </c>
       <c r="I36" t="n">
-        <v>9686.20807904814</v>
+        <v>9107.37118533731</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>14359.0387048622</v>
+        <v>13542.6525608587</v>
       </c>
       <c r="C37" t="n">
-        <v>12290.3935861873</v>
+        <v>11153.2064281226</v>
       </c>
       <c r="D37" t="n">
-        <v>11195.3190088275</v>
+        <v>9888.31005208015</v>
       </c>
       <c r="E37" t="n">
-        <v>16427.6838235372</v>
+        <v>15932.0986935948</v>
       </c>
       <c r="F37" t="n">
-        <v>17522.7584008969</v>
+        <v>17196.9950696372</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>1026</v>
       </c>
       <c r="I37" t="n">
-        <v>13333.0387048622</v>
+        <v>12516.6525608587</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>10395.6397058289</v>
+        <v>10142.3355027825</v>
       </c>
       <c r="C38" t="n">
-        <v>8206.91066757714</v>
+        <v>7702.2529229452</v>
       </c>
       <c r="D38" t="n">
-        <v>7048.26750308226</v>
+        <v>6410.55123099447</v>
       </c>
       <c r="E38" t="n">
-        <v>12584.3687440806</v>
+        <v>12582.4180826197</v>
       </c>
       <c r="F38" t="n">
-        <v>13743.0119085755</v>
+        <v>13874.1197745705</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>276</v>
       </c>
       <c r="I38" t="n">
-        <v>10119.6397058289</v>
+        <v>9866.33550278246</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>5233.95279618138</v>
+        <v>5002.74003924659</v>
       </c>
       <c r="C39" t="n">
-        <v>2941.6052857974</v>
+        <v>2496.65184655634</v>
       </c>
       <c r="D39" t="n">
-        <v>1728.10981553364</v>
+        <v>1170.00889380364</v>
       </c>
       <c r="E39" t="n">
-        <v>7526.30030656537</v>
+        <v>7508.82823193684</v>
       </c>
       <c r="F39" t="n">
-        <v>8739.79577682913</v>
+        <v>8835.47118468954</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>470</v>
       </c>
       <c r="I39" t="n">
-        <v>4763.95279618138</v>
+        <v>4532.74003924659</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>7451.37047738076</v>
+        <v>6983.60653524605</v>
       </c>
       <c r="C40" t="n">
-        <v>5124.78003501327</v>
+        <v>4452.54534803099</v>
       </c>
       <c r="D40" t="n">
-        <v>3893.15745153378</v>
+        <v>3112.68249053108</v>
       </c>
       <c r="E40" t="n">
-        <v>9777.96091974825</v>
+        <v>9514.66772246111</v>
       </c>
       <c r="F40" t="n">
-        <v>11009.5835032277</v>
+        <v>10854.530579961</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,9 +1661,297 @@
         <v>858</v>
       </c>
       <c r="I40" t="n">
-        <v>6593.37047738076</v>
+        <v>6125.60653524605</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8997.11146151826</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6456.49354774805</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5111.57166480253</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11537.7293752885</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12882.651258234</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1102</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7895.11146151826</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12009.3720691853</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9465.08147419254</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8118.21539124808</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14553.662664178</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15900.5287471225</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1898</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10111.3720691853</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12415.1188528357</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9869.41456737997</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8521.80012190959</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14960.8231382914</v>
+      </c>
+      <c r="F43" t="n">
+        <v>16308.4375837618</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2684</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9731.11885283567</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7762.94094331109</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5216.6921658192</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3868.78948367592</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10309.189720803</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11657.0924029463</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2237</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5525.94094331109</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4651.80960889307</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2105.35107056195</v>
+      </c>
+      <c r="D45" t="n">
+        <v>757.337347737843</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7198.26814722419</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8546.2818700483</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1209</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3442.80960889307</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5436.11901020698</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2889.57966480137</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1541.52316529598</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7982.65835561259</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9330.71485511798</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1546</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3890.11901020698</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7265.15156938873</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4718.58111615021</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3370.50814915279</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9811.72202262726</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11159.7949896247</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2533</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4732.15156938873</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11450.8461229332</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8904.26375361644</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7556.18447862826</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13997.4284922499</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15345.5077672381</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4637</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6813.84612293318</v>
+      </c>
+      <c r="J48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13990.1275190275</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11443.5407396701</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10095.4591301475</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16536.7142983848</v>
+      </c>
+      <c r="F49" t="n">
+        <v>17884.7959079075</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5826</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8164.12751902748</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>
